--- a/配置表/物品表.xlsx
+++ b/配置表/物品表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15400"/>
+    <workbookView windowHeight="17260"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDef" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>自增id</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>活动币7</t>
+  </si>
+  <si>
+    <t>活动币8</t>
   </si>
 </sst>
 </file>
@@ -1222,10 +1225,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1373,6 +1376,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>100012</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/配置表/物品表.xlsx
+++ b/配置表/物品表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>自增id</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>活动币8</t>
+  </si>
+  <si>
+    <t>活动币9</t>
   </si>
 </sst>
 </file>
@@ -1225,10 +1228,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1387,6 +1390,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>100013</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/配置表/物品表.xlsx
+++ b/配置表/物品表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>自增id</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>活动币8</t>
-  </si>
-  <si>
-    <t>活动币9</t>
   </si>
 </sst>
 </file>
@@ -1228,10 +1225,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1390,17 +1387,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>100013</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/配置表/物品表.xlsx
+++ b/配置表/物品表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>自增id</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>活动币8</t>
+  </si>
+  <si>
+    <t>活动币9</t>
   </si>
 </sst>
 </file>
@@ -1225,10 +1228,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1387,6 +1390,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>100013</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/配置表/物品表.xlsx
+++ b/配置表/物品表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>自增id</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>活动币8</t>
-  </si>
-  <si>
-    <t>活动币9</t>
   </si>
 </sst>
 </file>
@@ -1228,10 +1225,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1390,17 +1387,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>100013</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/配置表/物品表.xlsx
+++ b/配置表/物品表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>自增id</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>活动币8</t>
+  </si>
+  <si>
+    <t>活动币9</t>
   </si>
 </sst>
 </file>
@@ -1225,10 +1228,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1387,6 +1390,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>100013</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/配置表/物品表.xlsx
+++ b/配置表/物品表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>自增id</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>活动币9</t>
+  </si>
+  <si>
+    <t>活动币10</t>
   </si>
 </sst>
 </file>
@@ -1228,10 +1231,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1401,6 +1404,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>100014</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/配置表/物品表.xlsx
+++ b/配置表/物品表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>自增id</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>活动币10</t>
+  </si>
+  <si>
+    <t>活动币11</t>
   </si>
 </sst>
 </file>
@@ -1231,10 +1234,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1415,6 +1418,17 @@
         <v>19</v>
       </c>
     </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>100015</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/配置表/物品表.xlsx
+++ b/配置表/物品表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>自增id</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>活动币11</t>
+  </si>
+  <si>
+    <t>活动币12</t>
   </si>
 </sst>
 </file>
@@ -1234,10 +1237,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1429,6 +1432,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>100016</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/配置表/物品表.xlsx
+++ b/配置表/物品表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>自增id</t>
   </si>
@@ -87,12 +87,6 @@
   </si>
   <si>
     <t>活动币10</t>
-  </si>
-  <si>
-    <t>活动币11</t>
-  </si>
-  <si>
-    <t>活动币12</t>
   </si>
 </sst>
 </file>
@@ -1237,10 +1231,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1421,28 +1415,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>100015</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>100016</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/配置表/物品表.xlsx
+++ b/配置表/物品表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>自增id</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>活动币10</t>
+  </si>
+  <si>
+    <t>活动币11</t>
   </si>
 </sst>
 </file>
@@ -1231,10 +1234,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1415,6 +1418,17 @@
         <v>19</v>
       </c>
     </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>100015</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/配置表/物品表.xlsx
+++ b/配置表/物品表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>自增id</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t>金币</t>
@@ -1234,10 +1240,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1265,168 +1271,179 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>100001</v>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>100003</v>
+        <v>100002</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>100004</v>
+        <v>100003</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>100005</v>
+        <v>100004</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>100006</v>
+        <v>100005</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>100007</v>
+        <v>100006</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>100008</v>
+        <v>100007</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>100009</v>
+        <v>100008</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>100010</v>
+        <v>100009</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>100011</v>
+        <v>100010</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>100012</v>
+        <v>100011</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>100013</v>
+        <v>100012</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>100014</v>
+        <v>100013</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>100014</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>100015</v>
       </c>
-      <c r="C17" t="s">
-        <v>20</v>
+      <c r="C18" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/配置表/物品表.xlsx
+++ b/配置表/物品表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>自增id</t>
   </si>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>活动币11</t>
+  </si>
+  <si>
+    <t>活动币12</t>
+  </si>
+  <si>
+    <t>活动币13</t>
+  </si>
+  <si>
+    <t>活动币14</t>
+  </si>
+  <si>
+    <t>活动币15</t>
   </si>
 </sst>
 </file>
@@ -1240,10 +1252,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1446,6 +1458,50 @@
         <v>22</v>
       </c>
     </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>100016</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>100017</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>100018</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>100019</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/配置表/物品表.xlsx
+++ b/配置表/物品表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>自增id</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>活动币15</t>
+  </si>
+  <si>
+    <t>活动币16</t>
+  </si>
+  <si>
+    <t>活动币17</t>
+  </si>
+  <si>
+    <t>活动币18</t>
   </si>
 </sst>
 </file>
@@ -1252,10 +1261,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1502,6 +1511,39 @@
         <v>26</v>
       </c>
     </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>100020</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>100021</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>100022</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
